--- a/src/main/java/com/awinas/learning/leetcode/DSA_Problems_Notes.xlsx
+++ b/src/main/java/com/awinas/learning/leetcode/DSA_Problems_Notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a0m0rtj/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a0m0rtj/AwinasKannan/Official/LearningRepos/Java-Features/src/main/java/com/awinas/learning/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF946C26-5837-B245-84EF-8A6BA6C0BB21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BCD839-E448-2349-B197-2F1129D98E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="760" windowWidth="33580" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="33580" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problems" sheetId="1" r:id="rId1"/>
@@ -1194,7 +1194,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1231,6 +1231,12 @@
         <bgColor rgb="FFF4CCCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1259,7 +1265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1299,6 +1305,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1516,13 +1525,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:D1013"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D153" sqref="D153"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1547,7 +1556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -1561,7 +1570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1575,7 +1584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -1589,7 +1598,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -1603,7 +1612,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -1617,7 +1626,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -1631,7 +1640,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -1645,7 +1654,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
@@ -1659,7 +1668,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
@@ -1673,7 +1682,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>29</v>
       </c>
@@ -1687,7 +1696,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>31</v>
       </c>
@@ -1701,7 +1710,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>34</v>
       </c>
@@ -1715,7 +1724,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
         <v>36</v>
       </c>
@@ -1729,7 +1738,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>39</v>
       </c>
@@ -1743,7 +1752,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>42</v>
       </c>
@@ -1757,7 +1766,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>44</v>
       </c>
@@ -1771,7 +1780,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
         <v>47</v>
       </c>
@@ -1785,7 +1794,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
         <v>50</v>
       </c>
@@ -1799,7 +1808,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
         <v>53</v>
       </c>
@@ -1813,7 +1822,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
         <v>55</v>
       </c>
@@ -1827,7 +1836,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
         <v>57</v>
       </c>
@@ -1841,7 +1850,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>59</v>
       </c>
@@ -1855,7 +1864,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>61</v>
       </c>
@@ -1869,7 +1878,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>64</v>
       </c>
@@ -1883,7 +1892,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>66</v>
       </c>
@@ -1897,7 +1906,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>68</v>
       </c>
@@ -1911,7 +1920,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>70</v>
       </c>
@@ -1925,7 +1934,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>72</v>
       </c>
@@ -1939,7 +1948,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>75</v>
       </c>
@@ -1953,7 +1962,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
         <v>77</v>
       </c>
@@ -1967,21 +1976,21 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="15" t="s">
         <v>200</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
         <v>81</v>
       </c>
@@ -1995,7 +2004,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="12" t="s">
         <v>83</v>
       </c>
@@ -2009,7 +2018,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>87</v>
       </c>
@@ -2023,7 +2032,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
         <v>89</v>
       </c>
@@ -2037,7 +2046,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
         <v>91</v>
       </c>
@@ -2051,7 +2060,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="9" t="s">
         <v>93</v>
       </c>
@@ -2065,7 +2074,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="9" t="s">
         <v>96</v>
       </c>
@@ -2079,7 +2088,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="9" t="s">
         <v>98</v>
       </c>
@@ -2093,7 +2102,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="9" t="s">
         <v>100</v>
       </c>
@@ -2107,7 +2116,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
         <v>102</v>
       </c>
@@ -2121,7 +2130,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="9" t="s">
         <v>104</v>
       </c>
@@ -2135,7 +2144,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
         <v>106</v>
       </c>
@@ -2149,7 +2158,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
         <v>108</v>
       </c>
@@ -2163,7 +2172,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
         <v>110</v>
       </c>
@@ -2177,7 +2186,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
         <v>112</v>
       </c>
@@ -2191,7 +2200,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
         <v>114</v>
       </c>
@@ -2205,7 +2214,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="9" t="s">
         <v>116</v>
       </c>
@@ -2219,7 +2228,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="9" t="s">
         <v>119</v>
       </c>
@@ -2233,7 +2242,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="9" t="s">
         <v>121</v>
       </c>
@@ -2247,7 +2256,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="12" t="s">
         <v>124</v>
       </c>
@@ -2261,7 +2270,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
         <v>126</v>
       </c>
@@ -2275,7 +2284,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
         <v>128</v>
       </c>
@@ -2289,7 +2298,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="9" t="s">
         <v>130</v>
       </c>
@@ -2303,7 +2312,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
         <v>133</v>
       </c>
@@ -2317,7 +2326,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="9" t="s">
         <v>136</v>
       </c>
@@ -2331,7 +2340,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="9" t="s">
         <v>139</v>
       </c>
@@ -2345,7 +2354,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="9" t="s">
         <v>141</v>
       </c>
@@ -2359,7 +2368,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="9" t="s">
         <v>143</v>
       </c>
@@ -2373,7 +2382,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="9" t="s">
         <v>145</v>
       </c>
@@ -2387,7 +2396,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="12" t="s">
         <v>148</v>
       </c>
@@ -2401,7 +2410,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="9" t="s">
         <v>150</v>
       </c>
@@ -2415,7 +2424,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="9" t="s">
         <v>152</v>
       </c>
@@ -2429,7 +2438,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A65" s="9" t="s">
         <v>154</v>
       </c>
@@ -2443,7 +2452,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.15">
       <c r="A66" s="9" t="s">
         <v>156</v>
       </c>
@@ -2457,7 +2466,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.15">
       <c r="A67" s="9" t="s">
         <v>159</v>
       </c>
@@ -2471,7 +2480,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A68" s="9" t="s">
         <v>161</v>
       </c>
@@ -2485,7 +2494,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A69" s="9" t="s">
         <v>163</v>
       </c>
@@ -2499,7 +2508,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.15">
       <c r="A70" s="9" t="s">
         <v>165</v>
       </c>
@@ -2513,7 +2522,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:4" ht="30" x14ac:dyDescent="0.15">
       <c r="A71" s="9" t="s">
         <v>167</v>
       </c>
@@ -2527,7 +2536,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
         <v>169</v>
       </c>
@@ -2541,7 +2550,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A73" s="9" t="s">
         <v>171</v>
       </c>
@@ -2555,77 +2564,77 @@
         <v>172</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C74" s="15" t="s">
         <v>185</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
         <v>176</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C75" s="15" t="s">
         <v>185</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
         <v>178</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C76" s="15" t="s">
         <v>174</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A77" s="9" t="s">
         <v>180</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C77" s="15" t="s">
         <v>174</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A78" s="9" t="s">
         <v>182</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="C78" s="15" t="s">
         <v>174</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
         <v>184</v>
       </c>
@@ -2639,7 +2648,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A80" s="9" t="s">
         <v>187</v>
       </c>
@@ -2653,7 +2662,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A81" s="4" t="s">
         <v>189</v>
       </c>
@@ -2667,7 +2676,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A82" s="4" t="s">
         <v>191</v>
       </c>
@@ -2681,7 +2690,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
         <v>193</v>
       </c>
@@ -2695,7 +2704,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A84" s="9" t="s">
         <v>195</v>
       </c>
@@ -2709,7 +2718,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
         <v>197</v>
       </c>
@@ -2723,7 +2732,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A86" s="9" t="s">
         <v>199</v>
       </c>
@@ -2737,7 +2746,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A87" s="4" t="s">
         <v>202</v>
       </c>
@@ -2751,7 +2760,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A88" s="4" t="s">
         <v>204</v>
       </c>
@@ -2765,7 +2774,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:4" ht="30" x14ac:dyDescent="0.15">
       <c r="A89" s="9" t="s">
         <v>206</v>
       </c>
@@ -2779,7 +2788,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:4" ht="30" x14ac:dyDescent="0.15">
       <c r="A90" s="4" t="s">
         <v>208</v>
       </c>
@@ -2793,7 +2802,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A91" s="4" t="s">
         <v>210</v>
       </c>
@@ -2807,7 +2816,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A92" s="4" t="s">
         <v>212</v>
       </c>
@@ -2821,7 +2830,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A93" s="4" t="s">
         <v>214</v>
       </c>
@@ -2835,7 +2844,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:4" ht="30" x14ac:dyDescent="0.15">
       <c r="A94" s="9" t="s">
         <v>216</v>
       </c>
@@ -2849,7 +2858,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A95" s="9" t="s">
         <v>218</v>
       </c>
@@ -2863,7 +2872,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A96" s="9" t="s">
         <v>220</v>
       </c>
@@ -2877,7 +2886,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:4" ht="30" x14ac:dyDescent="0.15">
       <c r="A97" s="4" t="s">
         <v>222</v>
       </c>
@@ -2891,7 +2900,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A98" s="9" t="s">
         <v>224</v>
       </c>
@@ -2905,7 +2914,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:4" ht="30" x14ac:dyDescent="0.15">
       <c r="A99" s="9" t="s">
         <v>226</v>
       </c>
@@ -2919,7 +2928,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:4" ht="30" x14ac:dyDescent="0.15">
       <c r="A100" s="4" t="s">
         <v>228</v>
       </c>
@@ -2933,7 +2942,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A101" s="9" t="s">
         <v>230</v>
       </c>
@@ -2947,7 +2956,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A102" s="9" t="s">
         <v>232</v>
       </c>
@@ -2961,7 +2970,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A103" s="9" t="s">
         <v>234</v>
       </c>
@@ -2975,7 +2984,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:4" ht="30" x14ac:dyDescent="0.15">
       <c r="A104" s="9" t="s">
         <v>236</v>
       </c>
@@ -2989,7 +2998,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A105" s="9" t="s">
         <v>238</v>
       </c>
@@ -3003,7 +3012,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A106" s="4" t="s">
         <v>240</v>
       </c>
@@ -3017,7 +3026,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:4" ht="30" x14ac:dyDescent="0.15">
       <c r="A107" s="9" t="s">
         <v>242</v>
       </c>
@@ -3031,7 +3040,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A108" s="9" t="s">
         <v>244</v>
       </c>
@@ -3045,7 +3054,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A109" s="9" t="s">
         <v>246</v>
       </c>
@@ -3059,7 +3068,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A110" s="9" t="s">
         <v>248</v>
       </c>
@@ -3073,7 +3082,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A111" s="9" t="s">
         <v>250</v>
       </c>
@@ -3087,7 +3096,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:4" ht="30" x14ac:dyDescent="0.15">
       <c r="A112" s="9" t="s">
         <v>252</v>
       </c>
@@ -3101,7 +3110,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:4" ht="30" x14ac:dyDescent="0.15">
       <c r="A113" s="9" t="s">
         <v>254</v>
       </c>
@@ -3115,7 +3124,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A114" s="9" t="s">
         <v>256</v>
       </c>
@@ -3129,7 +3138,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A115" s="12" t="s">
         <v>258</v>
       </c>
@@ -3143,7 +3152,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A116" s="12" t="s">
         <v>260</v>
       </c>
@@ -3157,7 +3166,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A117" s="9" t="s">
         <v>262</v>
       </c>
@@ -3171,7 +3180,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A118" s="4" t="s">
         <v>265</v>
       </c>
@@ -3185,7 +3194,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:4" ht="30" x14ac:dyDescent="0.15">
       <c r="A119" s="9" t="s">
         <v>267</v>
       </c>
@@ -3199,7 +3208,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:4" ht="30" x14ac:dyDescent="0.15">
       <c r="A120" s="9" t="s">
         <v>270</v>
       </c>
@@ -3213,7 +3222,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A121" s="9" t="s">
         <v>272</v>
       </c>
@@ -3227,7 +3236,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:4" ht="30" x14ac:dyDescent="0.15">
       <c r="A122" s="9" t="s">
         <v>274</v>
       </c>
@@ -3241,7 +3250,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A123" s="9" t="s">
         <v>276</v>
       </c>
@@ -3255,7 +3264,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A124" s="9" t="s">
         <v>278</v>
       </c>
@@ -3269,7 +3278,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A125" s="4" t="s">
         <v>280</v>
       </c>
@@ -3283,7 +3292,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A126" s="9" t="s">
         <v>283</v>
       </c>
@@ -3297,7 +3306,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A127" s="9" t="s">
         <v>286</v>
       </c>
@@ -3311,7 +3320,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A128" s="9" t="s">
         <v>288</v>
       </c>
@@ -3325,7 +3334,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:4" ht="30" x14ac:dyDescent="0.15">
       <c r="A129" s="14" t="s">
         <v>290</v>
       </c>
@@ -3339,7 +3348,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A130" s="14" t="s">
         <v>292</v>
       </c>
@@ -3353,7 +3362,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A131" s="12" t="s">
         <v>294</v>
       </c>
@@ -3367,7 +3376,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:4" ht="30" x14ac:dyDescent="0.15">
       <c r="A132" s="9" t="s">
         <v>296</v>
       </c>
@@ -3381,7 +3390,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A133" s="12" t="s">
         <v>298</v>
       </c>
@@ -3395,7 +3404,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A134" s="9" t="s">
         <v>300</v>
       </c>
@@ -3409,7 +3418,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A135" s="12" t="s">
         <v>302</v>
       </c>
@@ -3423,7 +3432,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A136" s="9" t="s">
         <v>304</v>
       </c>
@@ -3437,7 +3446,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A137" s="9" t="s">
         <v>116</v>
       </c>
@@ -3451,7 +3460,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A138" s="4" t="s">
         <v>309</v>
       </c>
@@ -3465,7 +3474,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A139" s="9" t="s">
         <v>311</v>
       </c>
@@ -3479,7 +3488,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A140" s="9" t="s">
         <v>313</v>
       </c>
@@ -3493,7 +3502,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A141" s="9" t="s">
         <v>316</v>
       </c>
@@ -3507,7 +3516,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:4" ht="30" x14ac:dyDescent="0.15">
       <c r="A142" s="9" t="s">
         <v>318</v>
       </c>
@@ -3521,7 +3530,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A143" s="4" t="s">
         <v>321</v>
       </c>
@@ -3535,7 +3544,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:4" ht="30" x14ac:dyDescent="0.15">
       <c r="A144" s="4" t="s">
         <v>323</v>
       </c>
@@ -3549,7 +3558,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:4" ht="30" x14ac:dyDescent="0.15">
       <c r="A145" s="12" t="s">
         <v>325</v>
       </c>
@@ -3563,7 +3572,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A146" s="9" t="s">
         <v>327</v>
       </c>
@@ -3577,7 +3586,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:4" ht="30" x14ac:dyDescent="0.15">
       <c r="A147" s="9" t="s">
         <v>329</v>
       </c>
@@ -3591,7 +3600,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A148" s="9" t="s">
         <v>331</v>
       </c>
@@ -3605,7 +3614,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A149" s="4" t="s">
         <v>334</v>
       </c>
@@ -3619,7 +3628,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:4" ht="30" x14ac:dyDescent="0.15">
       <c r="A150" s="4" t="s">
         <v>337</v>
       </c>
@@ -3633,7 +3642,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A151" s="9" t="s">
         <v>340</v>
       </c>
@@ -8900,15 +8909,7 @@
       <c r="D1013" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:C161" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Two pointers"/>
-        <filter val="Two pointers, Binary search"/>
-        <filter val="Two pointers/ Sorting"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B1:C161" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
